--- a/doc/AndroidStudioでGitHubにプッシュ.xlsx
+++ b/doc/AndroidStudioでGitHubにプッシュ.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.プログラム_IT_メモ\5.GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Android progect\TestSmaple\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892E01FE-90AD-42DC-8728-5BC19A1AB011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F82EBE4-6D34-429E-9612-232A7330CC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-3120" windowWidth="19440" windowHeight="15000" xr2:uid="{FC97B92C-2069-47CC-B27D-C785562AB2C8}"/>
+    <workbookView xWindow="-19320" yWindow="-3120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="3" xr2:uid="{FC97B92C-2069-47CC-B27D-C785562AB2C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Top" sheetId="3" r:id="rId1"/>
     <sheet name="GitHubリポジトリ作成" sheetId="1" r:id="rId2"/>
     <sheet name="AndroidStudioから新規プロジェクトをプッシュ" sheetId="5" r:id="rId3"/>
     <sheet name="リポジトリ削除" sheetId="4" r:id="rId4"/>
-    <sheet name="SSHキーについて" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>GitHub　リモートリポジトリの作成</t>
     <rPh sb="17" eb="19">
@@ -225,319 +224,6 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GitHubにSSHキーを設定する</t>
-    <rPh sb="13" eb="15">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SSHキーって何？？？</t>
-    <rPh sb="7" eb="8">
-      <t>ナニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正直よくわかりません。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウジキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SSHプロトコル？　公開鍵？　秘密鍵？　での認証が必要らしい、、、。</t>
-    <rPh sb="10" eb="13">
-      <t>コウカイカギ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>ヒミツカギ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>秘密鍵は自分が保持し、公開鍵は相手(ここではGitHub)に送るとか、、、。</t>
-    <rPh sb="0" eb="3">
-      <t>ヒミツカギ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>コウカイカギ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SSHキーの設定は右上のアカウント情報タブから『設定』を選択、その後、左の『SSHとGPGキー』のページで設定出来る</t>
-    <rPh sb="6" eb="8">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ミギウエ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SSHキーに何を追加すればいいの？</t>
-    <rPh sb="6" eb="7">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自分のPCにGitをダウンロードしていると思いますが</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例）C:\Program Files\Git</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>このGitのディレクトリ内に</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ssh-keygen.exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>が存在します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：C:\Program Files\Git\usr\bin\ssh-keygen.exe</t>
-    </r>
-    <rPh sb="12" eb="13">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>こいつを実行するとコマンドプロンプトが起動</t>
-    <rPh sb="4" eb="6">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エンターを押して進めて行くと、C:\Users\taro1\.sshフォルダが作成される</t>
-    <rPh sb="5" eb="6">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>さらにそのフォルダ内に　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id_rsa　id_rsa.pub</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　が自動で作成される</t>
-    </r>
-    <rPh sb="9" eb="10">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GitHubのSSHキー設定入力欄にid_rsa.pubファイルの中身をコピペして貼り付ければOKな感じ</t>
-    <rPh sb="12" eb="14">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ナカミ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これでGitHubのSSHキーの設定が完了</t>
-    <rPh sb="16" eb="18">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SSHキーを設定しないとどうなる？</t>
-    <rPh sb="6" eb="8">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AndroidStudioでリモートリポジトリにプル、プッシュ、クローンなどのアクセスが拒否されてしまう。</t>
-    <rPh sb="44" eb="46">
-      <t>キョヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ちなみに</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AndroidStudioでリモートリポジトリを設定する時</t>
-    <rPh sb="24" eb="26">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このSSHキーを使用しているパスを指定する</t>
-    <rPh sb="8" eb="10">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※SSHキーについては後日、学習していこうと思います。</t>
-    <rPh sb="11" eb="13">
-      <t>ゴジツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オモ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1025,7 +711,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,23 +748,6 @@
     <font>
       <b/>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -1157,15 +826,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1186,16 +852,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -2425,111 +2091,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>6878618</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>60504</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7514A9-87C9-450C-BBE9-29882A65CCB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="76200" y="3261360"/>
-          <a:ext cx="6802418" cy="4807764"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>5985362</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4968EC2-CBDF-4E6A-9040-E6FE8AE1290C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="76200" y="15621000"/>
-          <a:ext cx="5909162" cy="4183380"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2829,30 +2390,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07158F5D-A5AB-4463-94E9-43BDEA8D5388}">
   <dimension ref="B2:B6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:2" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="7" t="s">
-        <v>34</v>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="8" t="s">
-        <v>35</v>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="8" t="s">
-        <v>48</v>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="8" t="s">
-        <v>77</v>
+      <c r="B6" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2879,45 +2440,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="32.4" x14ac:dyDescent="0.45">
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2937,7 +2498,7 @@
       </c>
     </row>
     <row r="56" spans="3:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2973,162 +2534,162 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
-        <v>36</v>
+      <c r="A1" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="C6" s="2" t="s">
-        <v>75</v>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C27" s="2" t="s">
-        <v>51</v>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C38" s="2" t="s">
-        <v>53</v>
+      <c r="C38" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C55" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C56" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C57" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C58" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C78" s="2" t="s">
-        <v>59</v>
+      <c r="C78" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C80" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C101" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C111" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C120" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C121" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C139" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C140" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C152" s="2" t="s">
-        <v>67</v>
+      <c r="C152" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C154" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C170" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C190" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C191" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C192" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C196" s="2" t="s">
-        <v>73</v>
+      <c r="C196" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3146,88 +2707,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EA4810-FE09-4212-9E90-3EF856323895}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
-        <v>36</v>
+      <c r="A1" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C21" s="2" t="s">
-        <v>41</v>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C35" s="2" t="s">
-        <v>42</v>
+      <c r="C35" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C51" s="2" t="s">
-        <v>44</v>
+      <c r="C51" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C52" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C69" s="2" t="s">
-        <v>46</v>
+      <c r="C69" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C70" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3238,129 +2799,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE5ECE0-BB69-4119-AAD9-46AFF44B2CCB}">
-  <dimension ref="A1:A85"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="105.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="32.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A37" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A52" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A61" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>